--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_OrganizationCodeProfile_AddNewProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71399E-2A05-465A-B297-2765B6E28B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85671565-5CF4-46C2-93BD-F47690FF1B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>NAN9</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t>txt_title</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>AddNewProfile_OrganizationCodeProfile</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -621,13 +621,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -636,10 +636,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -648,13 +648,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>19</v>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -698,7 +698,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -731,7 +731,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
@@ -742,10 +742,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -753,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476CA35-691B-4A94-952A-7B45B4B2A990}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,7 +841,7 @@
         <v>2023</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>32</v>
